--- a/extras/Data dictionary template.xlsx
+++ b/extras/Data dictionary template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stepheaneff/Documents/work/GT/data-science-basics-2024/extras/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F0E635-57FD-924F-AC40-70BA72D5755F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED922A67-EFC7-5D42-AF88-81368EA87513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="760" windowWidth="29780" windowHeight="16820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1049,16 +1049,16 @@
   <dimension ref="A1:V1003"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.19921875" customWidth="1"/>
-    <col min="2" max="2" width="98.796875" customWidth="1"/>
+    <col min="1" max="1" width="33.796875" customWidth="1"/>
+    <col min="2" max="2" width="96.3984375" customWidth="1"/>
     <col min="3" max="3" width="60.59765625" customWidth="1"/>
     <col min="4" max="4" width="42.19921875" customWidth="1"/>
-    <col min="5" max="5" width="60" customWidth="1"/>
+    <col min="5" max="5" width="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.25">
